--- a/biology/Microbiologie/Élie_Wollman/Élie_Wollman.xlsx
+++ b/biology/Microbiologie/Élie_Wollman/Élie_Wollman.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89lie_Wollman</t>
+          <t>Élie_Wollman</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Élie Wollman, né dans le 14e arrondissement de Paris en 1917, et mort dans le 15e en 2008[1], est un microbiologiste français, pionnier de la génétique microbienne, à l’origine des développements de la biologie moléculaire.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Élie Wollman, né dans le 14e arrondissement de Paris en 1917, et mort dans le 15e en 2008, est un microbiologiste français, pionnier de la génétique microbienne, à l’origine des développements de la biologie moléculaire.
 Il est assistant (1946) puis chef de laboratoire (1954) et professeur (1964-85) à l’Institut Pasteur. Il en est le sous-directeur de 1966 à 1985. Par la suite, il y est professeur honoraire.
 Il est directeur de recherche au Centre national de la recherche scientifique de 1960 à 1985, membre du Comité national de la recherche scientifique (1963-71 et 1976-83), du directoire et du conseil d'administration du CNRS de 1967 à 1971.
 Il est président de la Société française de microbiologie de 1983 à 1989 et membre correspondant de l’Académie des sciences (1980).
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89lie_Wollman</t>
+          <t>Élie_Wollman</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,11 +526,13 @@
           <t>Éléments biographiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Élie Léo Wollman est né le 4 juillet 1917 dans le 14e arrondissement de Paris. Son père Eugène Wollman (né à Minsk, le 26 mai 1883[2]) et sa mère Elisabeth (née Michelis) (née le 15 août 1888 à Minsk[2]) sont tous deux chercheurs à l'Institut Pasteur.
-Les parents d'Élie Wollman sont juifs[3]. Le 10 décembre 1943, des membres de la police, après avoir arrêté, le 4 décembre, Elisabeth au domicile familial, 12 rue Olier, dans le 15e arrondissement de Paris[4], viennent arrêter Eugène Wollman à l'Institut Pasteur. Eugène et Elisabeth Wollman sont tous deux transférés à Drancy, puis déportés à Auschwitz par le convoi 63, le 17 décembre 1943, où ils sont assassinés à leur arrivée[5].
-Il se marie, le 14 février 1948, avec Odile Fabries[6]. Ils ont deux enfants, le docteur Emmanuelle Wollman et le docteur Francis-André Wollman[7], tous deux chercheurs au CNRS.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Élie Léo Wollman est né le 4 juillet 1917 dans le 14e arrondissement de Paris. Son père Eugène Wollman (né à Minsk, le 26 mai 1883) et sa mère Elisabeth (née Michelis) (née le 15 août 1888 à Minsk) sont tous deux chercheurs à l'Institut Pasteur.
+Les parents d'Élie Wollman sont juifs. Le 10 décembre 1943, des membres de la police, après avoir arrêté, le 4 décembre, Elisabeth au domicile familial, 12 rue Olier, dans le 15e arrondissement de Paris, viennent arrêter Eugène Wollman à l'Institut Pasteur. Eugène et Elisabeth Wollman sont tous deux transférés à Drancy, puis déportés à Auschwitz par le convoi 63, le 17 décembre 1943, où ils sont assassinés à leur arrivée.
+Il se marie, le 14 février 1948, avec Odile Fabries. Ils ont deux enfants, le docteur Emmanuelle Wollman et le docteur Francis-André Wollman, tous deux chercheurs au CNRS.
 Il décède à Paris le 1er juin 2008.
 </t>
         </is>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89lie_Wollman</t>
+          <t>Élie_Wollman</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Formation et carrière</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Élie Wollman est élève au Lycée Buffon.
 Il fait ses études de médecine à la Faculté de médecine de Paris.
@@ -581,7 +597,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89lie_Wollman</t>
+          <t>Élie_Wollman</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -601,25 +617,135 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">À l'Institut Pasteur
-Jugeant, en 1964, la situation de l'Institut Pasteur préoccupante, Élie Wollman prend l'initiative, avec Bernard Virat et René Panthier, de la création d'une commission d'étude pour la réforme de l'Institut Pasteur, réforme qui sera mise en œuvre avec l'arrivée du directeur Pierre Mercier, en 1966.
+          <t>À l'Institut Pasteur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jugeant, en 1964, la situation de l'Institut Pasteur préoccupante, Élie Wollman prend l'initiative, avec Bernard Virat et René Panthier, de la création d'une commission d'étude pour la réforme de l'Institut Pasteur, réforme qui sera mise en œuvre avec l'arrivée du directeur Pierre Mercier, en 1966.
 Élie Wollman est nommé, en 1966, sous-directeur de l'Institut Pasteur par le directeur Pierre Mercier et sera maintenu dans ses fonctions successivement par les directeurs Jacques Monod, François Gros et Raymond Dedonder, jusqu'en 1985.
 En 1975, il prend la direction du Département des enseignements de l'Institut Pasteur.
 Il participe, en 1982, à la création du Musée des applications de la recherche à Marnes-la-Coquette.
 En 1987, il soutient la création, par la direction de l'Institut Pasteur (le directeur Raymond Dedonder et le sous-directeur Maxime Schwartz), d'un service d'archives historiques dont il devient le président du comité scientifique.
-Au CNRS
-Élie Wollman est élu membre du Comité national de la recherche scientifique (1963-1971) et membre du directoire et du conseil d'administration du CNRS (1967-1971).
-Au niveau national
-Élie Wollman participe, en 1956, à l'organisation et au déroulement du premier colloque de Caen sur la réforme de l'enseignement supérieur et de la recherche.
-Il est le secrétaire scientifique (1960-1965), puis le vice-président (1965-1972) du comité scientifique d'action concertée de biologie moléculaire[8] de la Délégation générale à la recherche scientifique et technique (DGRST).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Élie_Wollman</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89lie_Wollman</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Fonctions publiques</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Au CNRS</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Élie Wollman est élu membre du Comité national de la recherche scientifique (1963-1971) et membre du directoire et du conseil d'administration du CNRS (1967-1971).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Élie_Wollman</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89lie_Wollman</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Fonctions publiques</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Au niveau national</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Élie Wollman participe, en 1956, à l'organisation et au déroulement du premier colloque de Caen sur la réforme de l'enseignement supérieur et de la recherche.
+Il est le secrétaire scientifique (1960-1965), puis le vice-président (1965-1972) du comité scientifique d'action concertée de biologie moléculaire de la Délégation générale à la recherche scientifique et technique (DGRST).
 Il est membre de la commission de microbiologie de l'INSERM (1964-1968).
 Il est membre de la commission nationale de biologie humaine du ministère de l'Éducation nationale (1966).
 Il participe, en 1966, à un groupe de travail sur les conditions d'efficacité de la recherche fondamentale au colloque de Caen.
 Il est élu membre de la commission française pour l'UNESCO (1968) et de la commission Sciences de la vie du VIe plan (1971).
 Il est membre du comité scientifique de l'INRA (1972) et du Comité consultatif national d'éthique pour les sciences de la vie et de la santé (CCNE) (1983-1986).
 Il est président de la Société française de microbiologie (1983-89).
-Activités internationales
-Il se rend en Argentine, en juillet-août 1960, à l'invitation de l’Instituto nacional de Microbiologia, pour organiser une unité de génétique microbienne et mettre sur pied un département de biologie moléculaire à Buenos Aires.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Élie_Wollman</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89lie_Wollman</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Fonctions publiques</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Activités internationales</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se rend en Argentine, en juillet-août 1960, à l'invitation de l’Instituto nacional de Microbiologia, pour organiser une unité de génétique microbienne et mettre sur pied un département de biologie moléculaire à Buenos Aires.
 Il participe à des missions scientifiques en URSS (1961 et 1964), au Chili (1960 et 1962), en Roumanie (1965), en Hongrie (1966), en Israël (1972), au Japon (1974).
 Il représente la Société française de microbiologie auprès de l'Union internationale des sociétés de microbiologie (1963).
 Il participe à la création de l'Organisation européenne de biologie moléculaire destinée à promouvoir la biologie moléculaire en Europe, notamment grâce à la mise en place de cours (1964).
@@ -628,37 +754,39 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>%C3%89lie_Wollman</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Élie_Wollman</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Microbiologie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/%C3%89lie_Wollman</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Élie Wollman est nommé chevalier de la Légion d'honneur en 1960. Il est promu officier en 1980.
-Il est promu officier de l’Ordre national du Mérite en 1968. Il est promu commandeur en 2001[9].
+Il est promu officier de l’Ordre national du Mérite en 1968. Il est promu commandeur en 2001.
 Il est promu commandeur de l'Ordre des Palmes académiques.
 Il reçoit la Croix du combattant.
-Élie Wollman obtient le prix Rapkine (1953), le prix Lecomte de Noüy (1956), le prix ESSEC du cancer (1958), ainsi que les Prix de l’Académie des sciences : Fondation en hommage aux savants français assassinés par les Allemands en 1940-1945[10] (1958), Prix Roy Vaucouloux (1959) et Prix Charles-Léopold Mayer (1971)[11].
+Élie Wollman obtient le prix Rapkine (1953), le prix Lecomte de Noüy (1956), le prix ESSEC du cancer (1958), ainsi que les Prix de l’Académie des sciences : Fondation en hommage aux savants français assassinés par les Allemands en 1940-1945 (1958), Prix Roy Vaucouloux (1959) et Prix Charles-Léopold Mayer (1971).
 Élie Wollman est élu correspondant de l'Académie des sciences le 24 mars 1980, dans la section de biologie moléculaire et cellulaire, génomique.
 Il est membre honoraire de l’Académie royale des sciences, des lettres et des beaux-arts de Belgique (1985) et associé étranger de la National Academy of Sciences des États-Unis (1991).
 </t>
